--- a/First Measurement Series/FlightChristel.xlsx
+++ b/First Measurement Series/FlightChristel.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boris\My Documents\SVV_FlightDynamics\First Measurement Series\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="PFDS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -238,12 +233,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +306,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -752,7 +747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -772,7 +767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -787,9 +782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -827,9 +822,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,10 +856,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,10 +890,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1072,34 +1065,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1104,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1123,13 +1116,13 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1181,7 +1174,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1192,7 +1185,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1203,7 +1196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1229,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1244,12 +1237,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
@@ -1318,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1351,7 +1344,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1417,7 +1410,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1450,7 +1443,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1483,7 +1476,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1516,7 +1509,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1533,17 +1526,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="C35" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1551,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="B41" s="5" t="s">
         <v>58</v>
       </c>
@@ -1630,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1672,7 +1665,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1714,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1756,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1798,7 +1791,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1840,7 +1833,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1882,7 +1875,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1924,17 +1917,17 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="C50" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1942,7 +1935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +1990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
@@ -2035,7 +2028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2077,7 +2070,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2119,17 +2112,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="C61" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="D65" t="s">
         <v>33</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="D66" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2168,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="J67" s="4">
-        <v>2.2902777777777779</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.0402777777777779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -2295,86 +2288,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1">
         <f>PFDS!H8</f>
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>PFDS!H9</f>
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <f>PFDS!H10</f>
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <f>PFDS!H11</f>
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <f>PFDS!H12</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f>PFDS!H13</f>
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f>PFDS!H14</f>
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f>PFDS!H15</f>
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f>PFDS!H16</f>
         <v>60.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f>PFDS!D18</f>
         <v>4100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2408,7 +2401,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2442,7 +2435,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2476,7 +2469,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2510,7 +2503,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2544,7 +2537,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2578,7 +2571,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="e">
         <f>PFDS!#REF!*86400+PFDS!#REF!</f>
         <v>#REF!</v>
@@ -2612,7 +2605,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="7">
         <f>PFDS!B28*86400+PFDS!C28</f>
         <v>1540.0000000000002</v>
@@ -2646,7 +2639,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="7">
         <f>PFDS!B29*86400+PFDS!C29</f>
         <v>2188.0000000000005</v>
@@ -2680,7 +2673,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="7">
         <f>PFDS!B30*86400+PFDS!C30</f>
         <v>2448</v>
@@ -2714,7 +2707,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <f>PFDS!B31*86400+PFDS!C31</f>
         <v>2941.9999999999995</v>
@@ -2748,7 +2741,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="7">
         <f>PFDS!B32*86400+PFDS!C32</f>
         <v>3314.0000000000005</v>
@@ -2782,7 +2775,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="7">
         <f>PFDS!B33*86400+PFDS!C33</f>
         <v>3688</v>
@@ -2816,7 +2809,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="7">
         <f>PFDS!B34*86400+PFDS!C34</f>
         <v>0</v>
@@ -2850,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="7">
         <f>PFDS!B43*86400+PFDS!C43</f>
         <v>4484</v>
@@ -2896,7 +2889,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="7">
         <f>PFDS!B44*86400+PFDS!C44</f>
         <v>4620</v>
@@ -2942,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="7">
         <f>PFDS!B45*86400+PFDS!C45</f>
         <v>4754</v>
@@ -2988,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="7">
         <f>PFDS!B46*86400+PFDS!C46</f>
         <v>4932.0000000000009</v>
@@ -3034,7 +3027,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="7">
         <f>PFDS!B47*86400+PFDS!C47</f>
         <v>5130</v>
@@ -3080,7 +3073,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="7">
         <f>PFDS!B48*86400+PFDS!C48</f>
         <v>5270</v>
@@ -3126,7 +3119,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="7">
         <f>PFDS!B59*86400+PFDS!C59</f>
         <v>5748</v>
@@ -3172,7 +3165,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="7">
         <f>PFDS!B60*86400+PFDS!C60</f>
         <v>5948</v>
